--- a/medicineInventory.xlsx
+++ b/medicineInventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lnarke/Desktop/medicineInventory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54247121-102F-9845-9960-1F5A024E75AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A4F5081-1EB5-6E49-AC50-08F05271D3C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="medicineDetails" sheetId="1" r:id="rId1"/>
@@ -20,19 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
-  <si>
-    <t>MedicineName</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>UnitValue</t>
-  </si>
-  <si>
-    <t>TotalNumber</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>paracetamol</t>
   </si>
@@ -44,6 +32,9 @@
   </si>
   <si>
     <t>id02</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -396,40 +387,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
+      <c r="E3" t="n">
+        <v>10.0</v>
       </c>
     </row>
   </sheetData>
